--- a/RawECG/rawECG_visual_inspection.xlsx
+++ b/RawECG/rawECG_visual_inspection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wu Di\Documents\HRV-ML-Research\RawECG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD67AA-B464-4F0C-9416-745ED02331C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328275E0-5189-4BDE-B59C-A2EFC902B605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58B8AF5F-E3D3-4665-8FCE-B814CA5E37CE}"/>
   </bookViews>
@@ -1801,7 +1801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
